--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/times/JRC-CAN-TIMES_2019_11 - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/CAN_TIMES_v2 - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="8_{835C89AF-3E6B-4EDE-AD53-CAC6059BE9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E20CE80-D54F-4A67-8FB0-FD2AA05B430D}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{835C89AF-3E6B-4EDE-AD53-CAC6059BE9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFF3C2EB-4D27-4095-A80F-1720C35422B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSlices" sheetId="21" r:id="rId1"/>
@@ -3359,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2921898-00F1-44F2-AD60-2FB33366AE4E}">
   <dimension ref="A3:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3745,7 +3745,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26" t="s">
@@ -8600,7 +8600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C4259-8912-47F5-B612-6E8F439D991A}">
   <dimension ref="A1:AF90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
